--- a/Project Management .xlsx
+++ b/Project Management .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D063320\Documents\cloud\project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7373E6C3-C098-47BC-8437-FC06F2226280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE548882-0E99-4C1A-96DA-D17AB48B153B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Management Plan Q1 - 21" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Week</t>
   </si>
@@ -101,6 +101,18 @@
   <si>
     <t>28/11/2020</t>
   </si>
+  <si>
+    <t>Create a Github Repo</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>Create a Spreadsheet</t>
+  </si>
+  <si>
+    <t>Create a Trello Board</t>
+  </si>
 </sst>
 </file>
 
@@ -109,7 +121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -130,6 +142,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -407,10 +424,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -459,10 +476,10 @@
         <v>44214</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -489,14 +506,12 @@
       <c r="Z2" s="6"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
-        <v>44221</v>
+      <c r="A3" s="13"/>
+      <c r="B3" s="6" t="s">
+        <v>25</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -523,13 +538,13 @@
       <c r="Z3" s="6"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
-        <v>44228</v>
+      <c r="A4" s="13"/>
+      <c r="B4" s="6" t="s">
+        <v>26</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
       </c>
-      <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -556,13 +571,13 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
-        <v>44235</v>
+        <v>44221</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -590,14 +605,12 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
-        <v>44242</v>
+        <v>44228</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -624,13 +637,13 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
-        <v>44249</v>
+        <v>44235</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -658,13 +671,13 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
-        <v>44256</v>
+        <v>44242</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -692,13 +705,17 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
-        <v>44263</v>
+        <v>44249</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -713,13 +730,23 @@
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
-        <v>44270</v>
+        <v>44256</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -737,16 +764,22 @@
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
-        <v>44277</v>
+        <v>44263</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -764,7 +797,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
-        <v>44284</v>
+        <v>44270</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -788,7 +821,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -811,7 +844,9 @@
       <c r="T13" s="6"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
+      <c r="A14" s="13">
+        <v>44284</v>
+      </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -831,15 +866,11 @@
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
+      <c r="A15" s="13">
+        <v>44291</v>
+      </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -859,12 +890,6 @@
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
@@ -28307,6 +28332,12 @@
       <c r="Z995" s="6"/>
     </row>
     <row r="996" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A996" s="14"/>
+      <c r="B996" s="6"/>
+      <c r="C996" s="6"/>
+      <c r="D996" s="6"/>
+      <c r="E996" s="6"/>
+      <c r="F996" s="6"/>
       <c r="G996" s="6"/>
       <c r="H996" s="6"/>
       <c r="I996" s="6"/>
@@ -28329,6 +28360,12 @@
       <c r="Z996" s="6"/>
     </row>
     <row r="997" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A997" s="14"/>
+      <c r="B997" s="6"/>
+      <c r="C997" s="6"/>
+      <c r="D997" s="6"/>
+      <c r="E997" s="6"/>
+      <c r="F997" s="6"/>
       <c r="G997" s="6"/>
       <c r="H997" s="6"/>
       <c r="I997" s="6"/>
@@ -28416,7 +28453,52 @@
       <c r="Y1000" s="6"/>
       <c r="Z1000" s="6"/>
     </row>
+    <row r="1001" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G1001" s="6"/>
+      <c r="H1001" s="6"/>
+      <c r="I1001" s="6"/>
+      <c r="J1001" s="6"/>
+      <c r="K1001" s="6"/>
+      <c r="L1001" s="6"/>
+      <c r="M1001" s="6"/>
+      <c r="N1001" s="6"/>
+      <c r="O1001" s="6"/>
+      <c r="P1001" s="6"/>
+      <c r="Q1001" s="6"/>
+      <c r="R1001" s="6"/>
+      <c r="S1001" s="6"/>
+      <c r="T1001" s="6"/>
+      <c r="U1001" s="6"/>
+      <c r="V1001" s="6"/>
+      <c r="W1001" s="6"/>
+      <c r="X1001" s="6"/>
+      <c r="Y1001" s="6"/>
+      <c r="Z1001" s="6"/>
+    </row>
+    <row r="1002" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G1002" s="6"/>
+      <c r="H1002" s="6"/>
+      <c r="I1002" s="6"/>
+      <c r="J1002" s="6"/>
+      <c r="K1002" s="6"/>
+      <c r="L1002" s="6"/>
+      <c r="M1002" s="6"/>
+      <c r="N1002" s="6"/>
+      <c r="O1002" s="6"/>
+      <c r="P1002" s="6"/>
+      <c r="Q1002" s="6"/>
+      <c r="R1002" s="6"/>
+      <c r="S1002" s="6"/>
+      <c r="T1002" s="6"/>
+      <c r="U1002" s="6"/>
+      <c r="V1002" s="6"/>
+      <c r="W1002" s="6"/>
+      <c r="X1002" s="6"/>
+      <c r="Y1002" s="6"/>
+      <c r="Z1002" s="6"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -28429,7 +28511,7 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Project Management .xlsx
+++ b/Project Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D063320\Documents\cloud\project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE548882-0E99-4C1A-96DA-D17AB48B153B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5365A2A-C222-4402-8012-2CE6A7259F92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Week</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Demo Work with Video</t>
   </si>
   <si>
-    <t>4 hrs</t>
-  </si>
-  <si>
     <t>19/11/2020</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>Create a Trello Board</t>
+  </si>
+  <si>
+    <t>added ssh keys to github</t>
   </si>
 </sst>
 </file>
@@ -424,10 +424,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1002"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -476,10 +476,10 @@
         <v>44214</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -508,10 +508,10 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -540,10 +540,10 @@
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -570,14 +570,12 @@
       <c r="Z4" s="6"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
-        <v>44221</v>
+      <c r="A5" s="13"/>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -605,12 +603,10 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
-        <v>44228</v>
+        <v>44221</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -637,14 +633,10 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
-        <v>44235</v>
+        <v>44228</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -671,14 +663,10 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
-        <v>44242</v>
+        <v>44235</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -705,14 +693,10 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
-        <v>44249</v>
+        <v>44242</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -739,14 +723,10 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
-        <v>44256</v>
+        <v>44249</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -773,13 +753,13 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
-        <v>44263</v>
+        <v>44256</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -794,16 +774,22 @@
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
-        <v>44270</v>
+        <v>44263</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -821,7 +807,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
-        <v>44277</v>
+        <v>44270</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -845,7 +831,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
-        <v>44284</v>
+        <v>44277</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -869,7 +855,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
-        <v>44291</v>
+        <v>44284</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -892,7 +878,9 @@
       <c r="T15" s="6"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
+      <c r="A16" s="13">
+        <v>44291</v>
+      </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -912,12 +900,6 @@
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
@@ -28388,6 +28370,12 @@
       <c r="Z997" s="6"/>
     </row>
     <row r="998" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A998" s="14"/>
+      <c r="B998" s="6"/>
+      <c r="C998" s="6"/>
+      <c r="D998" s="6"/>
+      <c r="E998" s="6"/>
+      <c r="F998" s="6"/>
       <c r="G998" s="6"/>
       <c r="H998" s="6"/>
       <c r="I998" s="6"/>
@@ -28496,6 +28484,28 @@
       <c r="X1002" s="6"/>
       <c r="Y1002" s="6"/>
       <c r="Z1002" s="6"/>
+    </row>
+    <row r="1003" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G1003" s="6"/>
+      <c r="H1003" s="6"/>
+      <c r="I1003" s="6"/>
+      <c r="J1003" s="6"/>
+      <c r="K1003" s="6"/>
+      <c r="L1003" s="6"/>
+      <c r="M1003" s="6"/>
+      <c r="N1003" s="6"/>
+      <c r="O1003" s="6"/>
+      <c r="P1003" s="6"/>
+      <c r="Q1003" s="6"/>
+      <c r="R1003" s="6"/>
+      <c r="S1003" s="6"/>
+      <c r="T1003" s="6"/>
+      <c r="U1003" s="6"/>
+      <c r="V1003" s="6"/>
+      <c r="W1003" s="6"/>
+      <c r="X1003" s="6"/>
+      <c r="Y1003" s="6"/>
+      <c r="Z1003" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -28534,20 +28544,20 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -28560,7 +28570,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -28573,7 +28583,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
@@ -28586,7 +28596,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>10</v>
@@ -28605,14 +28615,14 @@
         <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>15</v>

--- a/Project Management .xlsx
+++ b/Project Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D063320\Documents\cloud\project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5365A2A-C222-4402-8012-2CE6A7259F92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BBD18C-7DC5-430E-AD3D-E4B3CEA381DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Week</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>added ssh keys to github</t>
+  </si>
+  <si>
+    <t>prepare python files and test them locally with make</t>
+  </si>
+  <si>
+    <t>1 h</t>
   </si>
 </sst>
 </file>
@@ -424,10 +430,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1003"/>
+  <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -602,11 +608,13 @@
       <c r="Z5" s="6"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
-        <v>44221</v>
+      <c r="A6" s="13"/>
+      <c r="B6" s="6" t="s">
+        <v>27</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -633,10 +641,10 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
-        <v>44228</v>
+        <v>44221</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -663,10 +671,10 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
-        <v>44235</v>
+        <v>44228</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -693,7 +701,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -723,7 +731,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
-        <v>44249</v>
+        <v>44242</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -753,7 +761,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
-        <v>44256</v>
+        <v>44249</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -783,13 +791,13 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
-        <v>44263</v>
+        <v>44256</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -804,16 +812,22 @@
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
-        <v>44270</v>
+        <v>44263</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -831,7 +845,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
-        <v>44277</v>
+        <v>44270</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -855,7 +869,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
-        <v>44284</v>
+        <v>44277</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -879,7 +893,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
-        <v>44291</v>
+        <v>44284</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -902,7 +916,9 @@
       <c r="T16" s="6"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
+      <c r="A17" s="13">
+        <v>44291</v>
+      </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -922,12 +938,6 @@
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
@@ -28398,6 +28408,12 @@
       <c r="Z998" s="6"/>
     </row>
     <row r="999" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A999" s="14"/>
+      <c r="B999" s="6"/>
+      <c r="C999" s="6"/>
+      <c r="D999" s="6"/>
+      <c r="E999" s="6"/>
+      <c r="F999" s="6"/>
       <c r="G999" s="6"/>
       <c r="H999" s="6"/>
       <c r="I999" s="6"/>
@@ -28506,6 +28522,28 @@
       <c r="X1003" s="6"/>
       <c r="Y1003" s="6"/>
       <c r="Z1003" s="6"/>
+    </row>
+    <row r="1004" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G1004" s="6"/>
+      <c r="H1004" s="6"/>
+      <c r="I1004" s="6"/>
+      <c r="J1004" s="6"/>
+      <c r="K1004" s="6"/>
+      <c r="L1004" s="6"/>
+      <c r="M1004" s="6"/>
+      <c r="N1004" s="6"/>
+      <c r="O1004" s="6"/>
+      <c r="P1004" s="6"/>
+      <c r="Q1004" s="6"/>
+      <c r="R1004" s="6"/>
+      <c r="S1004" s="6"/>
+      <c r="T1004" s="6"/>
+      <c r="U1004" s="6"/>
+      <c r="V1004" s="6"/>
+      <c r="W1004" s="6"/>
+      <c r="X1004" s="6"/>
+      <c r="Y1004" s="6"/>
+      <c r="Z1004" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
